--- a/Data/Transitions/19381954Translation.xlsx
+++ b/Data/Transitions/19381954Translation.xlsx
@@ -79,7 +79,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0}</t>
@@ -100,7 +100,7 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 681.0: 0.005656892172708382, 741.0: 0.0013812154696132596}</t>
+    <t>{46.0: 1.0, 681.0: 0.005656892172708382, 741.0: 0.0013892747985551543}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
@@ -109,7 +109,7 @@
     <t>{48.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.8933886722844087}</t>
+    <t>{49.0: 0.8868973492261164}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -163,10 +163,10 @@
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993480032599837}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.9994900560938297}</t>
+    <t>{79.0: 0.9993761696818465}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9994958830448664}</t>
   </si>
   <si>
     <t>{82.0: 0.9989678560896491}</t>
@@ -178,7 +178,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9949758577971871, 178.0: 0.008743055389971149, 492.0: 0.0034375, 97.0: 1.3291445142580957e-05, 696.0: 3.4640577762848506e-06}</t>
+    <t>{85.0: 0.994937445570922, 178.0: 0.008789371494318998, 492.0: 0.0034375, 97.0: 1.3250883392226149e-05, 696.0: 3.365698433420365e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.8987559555320275, 694.0: 0.006483790523690773}</t>
@@ -196,7 +196,7 @@
     <t>{91.0: 0.9618488000094441, 104.0: 1.0, 294.0: 1.0, 566.0: 1.0}</t>
   </si>
   <si>
-    <t>{92.0: 1.0, 91.0: 0.038151199990555905, 858.0: 0.11116858391946506}</t>
+    <t>{92.0: 1.0, 91.0: 0.038151199990555905, 858.0: 0.10346854860717557}</t>
   </si>
   <si>
     <t>{94.0: 1.0}</t>
@@ -208,7 +208,7 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9951227788408464}</t>
+    <t>{97.0: 0.9951567948489588}</t>
   </si>
   <si>
     <t>{98.0: 1.0}</t>
@@ -232,10 +232,10 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.008041738771458164}</t>
-  </si>
-  <si>
-    <t>{107.0: -0.005397783378865379, 505.0: 0.009305654974946313}</t>
+    <t>{107.0: 0.39533413779233467}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.6046658622076654, 505.0: 0.009305654974946313}</t>
   </si>
   <si>
     <t>{108.0: 0.9995243983639304}</t>
@@ -256,10 +256,10 @@
     <t>{142.0: 1.0}</t>
   </si>
   <si>
-    <t>{144.0: 0.04837837837837838}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9516216216216217}</t>
+    <t>{144.0: 0.0447239110518864}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9552760889481136}</t>
   </si>
   <si>
     <t>{145.0: 0.9980884254689805}</t>
@@ -280,7 +280,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9280208629081054}</t>
+    <t>{152.0: 0.9280286630608138}</t>
   </si>
   <si>
     <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851}</t>
@@ -313,10 +313,10 @@
     <t>{172.0: 1.0}</t>
   </si>
   <si>
-    <t>{173.0: 0.9233712163834815, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 212.0: 4.511520929137317e-06}</t>
-  </si>
-  <si>
-    <t>{174.0: 0.9934177215189873}</t>
+    <t>{173.0: 0.9233712163834815, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307, 420.0: 0.0055694725870200175, 212.0: 4.4933219741992875e-06}</t>
+  </si>
+  <si>
+    <t>{174.0: 0.9934541792547835}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -328,19 +328,19 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9761333054798886, 681.0: 0.010330059016298597, 768.0: 0.012138970280452072}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.4138999238272808, 850.0: 0.0011018966358130604}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5861000761727191, 850.0: 0.001560332981491432}</t>
+    <t>{178.0: 0.976087630142054, 681.0: 0.010415463666074353, 768.0: 0.012138970280452072}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.4137337614901977, 850.0: 0.0011036579166127315}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5862662385098023, 850.0: 0.0015638979353379187}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 1.0, 277.0: 0.0025256276927648194, 282.0: 0.0027799841143764893}</t>
+    <t>{182.0: 1.0, 277.0: 0.0025278810408921933, 282.0: 0.0028089887640449437}</t>
   </si>
   <si>
     <t>{183.0: 1.0}</t>
@@ -349,16 +349,16 @@
     <t>{184.0: 0.9937868903386144}</t>
   </si>
   <si>
-    <t>{858.0: 0.45766386834936346}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.181315320072715}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.2765425174972384, 307.0: 0.9844963966062609}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.9011118598382749}</t>
+    <t>{858.0: 0.3251826980051353}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.7358031956941439}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.27656206348482465, 307.0: 0.9844963966062609}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.9116096973347387}</t>
   </si>
   <si>
     <t>{204.0: 1.0}</t>
@@ -376,16 +376,16 @@
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
-  </si>
-  <si>
-    <t>{210.0: 1.0, 82.0: 0.0010321439103509289, 788.0: -0.0002023300897359477}</t>
+    <t>{209.0: 0.9187771232698736}</t>
+  </si>
+  <si>
+    <t>{210.0: 1.0, 82.0: 0.0010321439103509289, 788.0: -0.00017673394070562247}</t>
   </si>
   <si>
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9991899554475496, 681.0: 0.001962595243592704}</t>
+    <t>{212.0: 0.9991932230738201, 681.0: 0.001962595243592704}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -406,10 +406,10 @@
     <t>{219.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144}</t>
+    <t>{221.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269}</t>
   </si>
   <si>
     <t>{222.0: 1.0}</t>
@@ -418,7 +418,7 @@
     <t>{223.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -427,7 +427,7 @@
     <t>{226.0: 0.7384353461125667}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -448,7 +448,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10661132771559133}</t>
+    <t>{49.0: 0.11310265077388365}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -457,7 +457,7 @@
     <t>{237.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.0025682932523931824}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025246729400963965}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
@@ -469,13 +469,16 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.3665829731478953}</t>
+    <t>{858.0: 0.26046723041719105}</t>
   </si>
   <si>
     <t>{246.0: 1.0}</t>
@@ -499,7 +502,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9974317067476068}</t>
+    <t>{253.0: 0.9974753270599036}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -523,22 +526,22 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9778834229020257, 79.0: 0.0006519967400162999}</t>
-  </si>
-  <si>
-    <t>{263.0: 1.0, 595.0: 0.0017152658662092624}</t>
+    <t>{262.0: 0.9778834229020257, 79.0: 0.0006238303181534623}</t>
+  </si>
+  <si>
+    <t>{263.0: 1.0, 595.0: 0.0017327861377108983}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.06571137480117686}</t>
+    <t>{400.0: 0.06158198808299092}</t>
   </si>
   <si>
     <t>{267.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
@@ -559,7 +562,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9938752379741679}</t>
+    <t>{277.0: 0.9938729927566781}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -571,7 +574,7 @@
     <t>{281.0: 1.0, 599.0: 0.005091539378182212, 621.0: 0.04563312178906014}</t>
   </si>
   <si>
-    <t>{282.0: 0.9972200158856235, 277.0: 0.003599134333067344}</t>
+    <t>{282.0: 0.9971910112359551, 277.0: 0.0035991262024297707}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -580,7 +583,7 @@
     <t>{284.0: 1.0}</t>
   </si>
   <si>
-    <t>{285.0: 1.0, 311.0: -0.057003881354220694}</t>
+    <t>{285.0: 1.0, 311.0: 0.08782941840400513}</t>
   </si>
   <si>
     <t>{286.0: 1.0, 909.0: 0.009027434938994288}</t>
@@ -646,7 +649,7 @@
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.12431143871849425}</t>
+    <t>{311.0: 0.17636738590185097}</t>
   </si>
   <si>
     <t>{226.0: 0.2608672648665498, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688}</t>
@@ -667,31 +670,28 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146}</t>
+    <t>{400.0: 0.9375071729331006}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9983058636451748, 141.0: 0.0015162157654260925}</t>
+    <t>{402.0: 0.9983019057254231, 141.0: 0.0015162157654260925}</t>
   </si>
   <si>
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.3602408039990831, 907.0: 0.3609253569492138}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.0018966607276280246}</t>
+    <t>{404.0: 0.5153463240358885, 907.0: 0.5163452332102312}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.0019345761519521632}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -709,7 +709,7 @@
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.6378625352732888, 907.0: 0.6390746430507862}</t>
+    <t>{404.0: 0.4827190998121594, 907.0: 0.4836547667897688}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -733,13 +733,13 @@
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 0.9928977254509935, 212.0: 0.0008042913936419551}</t>
+    <t>{420.0: 0.9928977254509935, 212.0: 0.0008010469749503779}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14934163476504986}</t>
+    <t>{597.0: 0.13779986025929664}</t>
   </si>
   <si>
     <t>{423.0: 1.0}</t>
@@ -754,16 +754,16 @@
     <t>{426.0: 1.0}</t>
   </si>
   <si>
-    <t>{428.0: 0.2669725101108509, 755.0: 0.13485851896447923}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7321078791910113}</t>
+    <t>{428.0: 0.2118598838073569, 755.0: 0.13485851896447923}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7872205054945053}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 1.0, 783.0: 0.0003181673560292714}</t>
+    <t>{430.0: 1.0, 783.0: 0.0003204101249599487}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -814,7 +814,7 @@
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728}</t>
+    <t>{479.0: 0.9794553272814143}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -847,7 +847,7 @@
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.995625, 97.0: 0.004860304774426683, 696.0: 0.0010033170977494122, 85.0: 0.0014245921465699139, 178.0: 0.015123639130140285}</t>
+    <t>{492.0: 0.995625, 97.0: 0.004826340390360104, 696.0: 0.0009748286553524804, 85.0: 0.0014245371484958996, 178.0: 0.015122998363626934}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -874,7 +874,7 @@
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 1.0, 534.0: 0.0004564646810453041, 695.0: 0.0018017591979570605}</t>
+    <t>{502.0: 1.0, 534.0: 0.0004564646810453041, 695.0: 0.0018018564173032106}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -892,10 +892,10 @@
     <t>{507.0: 0.9989233419465977}</t>
   </si>
   <si>
-    <t>{529.0: 1.0, 530.0: 0.01221001221001221}</t>
-  </si>
-  <si>
-    <t>{530.0: 0.9877899877899878}</t>
+    <t>{529.0: 1.0, 530.0: 0.012586532410320957}</t>
+  </si>
+  <si>
+    <t>{530.0: 0.9874134675896791}</t>
   </si>
   <si>
     <t>{531.0: 1.0, 262.0: 0.02211657709797437, 442.0: 0.0021008403361344537}</t>
@@ -907,7 +907,7 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615052106698433, 141.0: 1.0046867056022953e-06}</t>
+    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615025880422153, 141.0: 1.0046867056022953e-06}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
@@ -916,7 +916,7 @@
     <t>{536.0: 1.0}</t>
   </si>
   <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 1.0}</t>
@@ -928,10 +928,10 @@
     <t>{540.0: 1.0, 428.0: 0.0009196106981377883}</t>
   </si>
   <si>
-    <t>{542.0: 0.10538281020827223, 911.0: 0.01249604555520405}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8946171897917278}</t>
+    <t>{542.0: 0.09915131442765474, 911.0: 0.012482224680044242}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9008486855723453}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
@@ -967,7 +967,7 @@
     <t>{567.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.2315051020408163}</t>
+    <t>{573.0: 0.4529689486108589}</t>
   </si>
   <si>
     <t>{574.0: 1.0, 906.0: 0.007075471698113208}</t>
@@ -985,7 +985,7 @@
     <t>{578.0: 0.8179515418502202}</t>
   </si>
   <si>
-    <t>{573.0: 0.7684948979591837}</t>
+    <t>{573.0: 0.5470310513891411}</t>
   </si>
   <si>
     <t>{580.0: 0.9374294316898758}</t>
@@ -997,7 +997,7 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
@@ -1015,7 +1015,7 @@
     <t>{588.0: 1.0, 507.0: 0.0010766580534022395}</t>
   </si>
   <si>
-    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.013299521821319988}</t>
+    <t>{589.0: 1.0, 145.0: 0.0006552002793013001, 743.0: 0.010654858616757608}</t>
   </si>
   <si>
     <t>{590.0: 1.0}</t>
@@ -1024,16 +1024,16 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.3232683533803401, 171.0: 0.001857864099887012}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6767316466196599, 171.0: 0.003889262336894597}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077}</t>
-  </si>
-  <si>
-    <t>{597.0: 0.8506583652349502}</t>
+    <t>{593.0: 0.49682353666810586, 171.0: 0.0028553076820006084}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5031764633318941, 171.0: 0.0028918187547810007}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674}</t>
+  </si>
+  <si>
+    <t>{597.0: 0.8622001397407033}</t>
   </si>
   <si>
     <t>{598.0: 1.0, 599.0: 0.010538833469030598}</t>
@@ -1066,7 +1066,7 @@
     <t>{607.0: 1.0}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.5979012446107541, 610.0: 0.46334982591167306}</t>
@@ -1123,10 +1123,10 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
-  </si>
-  <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{627.0: 0.432346990389479}</t>
+  </si>
+  <si>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1147,19 +1147,19 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.0014527342533983605}</t>
+    <t>{702.0: 0.001321003963011889}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
+    <t>{679.0: 0.5064363143631436}</t>
   </si>
   <si>
     <t>{680.0: 0.9970133043714363}</t>
   </si>
   <si>
-    <t>{681.0: 0.9820504535674003, 171.0: 0.004721923759538046}</t>
+    <t>{681.0: 0.9819650489176246, 171.0: 0.004721923759538046}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
@@ -1177,7 +1177,7 @@
     <t>{686.0: 0.989437624892949}</t>
   </si>
   <si>
-    <t>{687.0: 0.9931478405315615, 174.0: 0.006537175659195088}</t>
+    <t>{687.0: 0.9931478405315615, 174.0: 0.006500967737618479}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1198,19 +1198,19 @@
     <t>{694.0: 0.9935162094763093, 86.0: 0.10124404446797247}</t>
   </si>
   <si>
-    <t>{695.0: 0.9726124982080356}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9989932188444743, 14.0: 0.0009894459102902375, 492.0: 0.0009375, 97.0: 3.624939584340261e-06}</t>
+    <t>{695.0: 0.9726649784458168}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9990218056462141, 14.0: 0.0009894459102902375, 492.0: 0.0009375, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.17918043031872155}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.8208195696812784}</t>
+    <t>{698.0: 0.41478628942427037}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5852137105757296}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1219,7 +1219,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9985472657466017}</t>
+    <t>{702.0: 0.9986789960369881}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1264,16 +1264,16 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.5631107081696384}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.42358977000904163}</t>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.6499878944395125}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.3393572469437298}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1336,7 +1336,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.00421455938697318}</t>
+    <t>{770.0: 1.0, 992.0: 0.004208110175975516}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1345,7 +1345,7 @@
     <t>{772.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.34352944792819384}</t>
+    <t>{992.0: 0.34353167279893726}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1357,22 +1357,22 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 1.0, 420.0: 0.0015328019619865114, 212.0: 1.2416378792924353e-06, 184.0: 0.006213109661385523}</t>
+    <t>{778.0: 1.0, 420.0: 0.0015328019619865114, 212.0: 1.2366292553340148e-06, 184.0: 0.006213109661385523}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0005099439061703213}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 1.0, 81.0: 0.000504116955133591}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.9958950969213227, 889.0: 0.5748804429901837}</t>
+    <t>{785.0: 0.9958950969213227, 889.0: 0.2574101205905556}</t>
   </si>
   <si>
     <t>{786.0: 1.0}</t>
@@ -1381,7 +1381,7 @@
     <t>{787.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: -0.041453388785100964}</t>
+    <t>{788.0: -0.036209249771767926}</t>
   </si>
   <si>
     <t>{789.0: 1.0}</t>
@@ -1423,7 +1423,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1435,13 +1435,13 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 634.0: 0.9198774700023947}</t>
+    <t>{848.0: 0.9228851136919364, 634.0: 0.9196454994271116}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
@@ -1450,7 +1450,7 @@
     <t>{852.0: 0.9974811083123426}</t>
   </si>
   <si>
-    <t>{853.0: 1.0, 202.0: 0.7234574825027617, 477.0: 0.9101412494653922, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756, 680.0: 0.002986695628563671}</t>
+    <t>{853.0: 1.0, 202.0: 0.7234379365151753, 477.0: 0.9101412494653922, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756, 680.0: 0.002986695628563671}</t>
   </si>
   <si>
     <t>{854.0: 1.0}</t>
@@ -1462,10 +1462,10 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 1.0, 695.0: 0.01804123711340206}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.06458457458327624}</t>
+    <t>{857.0: 1.0, 695.0: 0.017988252569750368}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.31088152297049804}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1474,7 +1474,7 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.9041179020372778}</t>
+    <t>{861.0: 0.9096479045829589}</t>
   </si>
   <si>
     <t>{863.0: 1.0}</t>
@@ -1495,7 +1495,7 @@
     <t>{888.0: 0.3122645438196057}</t>
   </si>
   <si>
-    <t>{889.0: 0.42511955700981624}</t>
+    <t>{889.0: 0.7425898794094444}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1513,10 +1513,10 @@
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1525,16 +1525,16 @@
     <t>{906.0: 0.9929245283018868, 477.0: 0.002429928354099725}</t>
   </si>
   <si>
-    <t>{788.0: 0.5284090305469189}</t>
+    <t>{788.0: 0.5258825654402548}</t>
   </si>
   <si>
     <t>{909.0: 0.9909725650610057}</t>
   </si>
   <si>
-    <t>{911.0: 0.987503954444796, 687.0: 0.006852159468438538, 174.0: 4.510282181757012e-05}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.09588209796272215}</t>
+    <t>{911.0: 0.9875177753199558, 687.0: 0.006852159468438538, 174.0: 4.4853007598036755e-05}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.09035209541704109}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
@@ -1555,7 +1555,7 @@
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 695.0: 0.007544505480605318}</t>
+    <t>{919.0: 1.0, 695.0: 0.0075449125671298}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1603,7 +1603,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035995500562429695}</t>
+    <t>{937.0: 1.0, 85.0: 0.0036380172805820826}</t>
   </si>
   <si>
     <t>{940.0: 1.0, 785.0: 0.004104903078677309}</t>
@@ -1615,13 +1615,13 @@
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 1.0, 848.0: 0.07675609826841082, 634.0: 0.07647622188456976}</t>
+    <t>{943.0: 1.0, 848.0: 0.07711488630806371, 634.0: 0.07684418903273924}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 152.0: 0.0004351136734471881}</t>
+    <t>{971.0: 1.0, 152.0: 0.0004267121826328142}</t>
   </si>
   <si>
     <t>{972.0: 1.0}</t>
@@ -1633,7 +1633,7 @@
     <t>{974.0: 1.0}</t>
   </si>
   <si>
-    <t>{975.0: 0.9992899408284024, 152.0: 0.07154402341844747}</t>
+    <t>{975.0: 0.9992899408284024, 152.0: 0.07154462475655347}</t>
   </si>
   <si>
     <t>{976.0: 1.0}</t>
@@ -1660,13 +1660,13 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.3755864039975379}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.27666958868729524}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.09888814016172506}</t>
+    <t>{992.0: 0.4315215930889716}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.22073862393611562}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.08839030266526125}</t>
   </si>
   <si>
     <t>{5.0: 1.0}</t>
@@ -1708,7 +1708,7 @@
     <t>{82.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680976, 178.0: 0.023807093342605862, 492.0: 0.00889676964238059, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
+    <t>{85.0: 0.9672733850680976, 178.0: 0.023807093342605862, 492.0: 0.008896769642380589, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9886446353180959, 694.0: 0.011355364681904206}</t>
@@ -1762,7 +1762,7 @@
     <t>{185.0: 0.4093653665270528, 700.0: 0.568602215730542, 173.0: 0.022032417742405126}</t>
   </si>
   <si>
-    <t>{165.0: 0.9931010392105493, 914.0: 0.006238578376561143, 110.0: 0.0006603824128895607}</t>
+    <t>{165.0: 0.9931010392105492, 914.0: 0.006238578376561143, 110.0: 0.0006603824128895607}</t>
   </si>
   <si>
     <t>{167.0: 0.4191015179433184, 596.0: 0.5808984820566816}</t>
@@ -1780,16 +1780,16 @@
     <t>{175.0: 0.9818551540747693, 399.0: 0.01814484592523072}</t>
   </si>
   <si>
-    <t>{178.0: 0.9862602263863139, 681.0: 0.007171753079185206, 768.0: 0.006568020534500982}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5950678828464971, 180.0: 0.4047509394724499, 850.0: 0.0001811776810530214}</t>
+    <t>{178.0: 0.9862044958405797, 681.0: 0.007227483624919333, 768.0: 0.006568020534500982}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5960977403468276, 180.0: 0.4037215427584727, 850.0: 0.00018071689469940593}</t>
   </si>
   <si>
     <t>{180.0: 0.999552572706935, 850.0: 0.0004474272930648771}</t>
   </si>
   <si>
-    <t>{182.0: 0.9971718123968886, 277.0: 0.0020032995522036297, 282.0: 0.0008248880509073769}</t>
+    <t>{182.0: 0.9971607713237908, 277.0: 0.0020111203123151546, 282.0: 0.0008281083638944756}</t>
   </si>
   <si>
     <t>{184.0: 1.0}</t>
@@ -1855,7 +1855,7 @@
     <t>{262.0: 0.9992897727272727, 79.0: 0.0007102272727272727}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492864}</t>
+    <t>{263.0: 0.9986024273630011, 595.0: 0.0013975726369988967}</t>
   </si>
   <si>
     <t>{400.0: 1.0}</t>
@@ -1864,7 +1864,7 @@
     <t>{270.0: 0.9873640905083753, 479.0: 0.012635909491625038}</t>
   </si>
   <si>
-    <t>{275.0: 0.9901029295328584, 921.0: 0.009897070467141725}</t>
+    <t>{275.0: 0.9901029295328582, 921.0: 0.009897070467141725}</t>
   </si>
   <si>
     <t>{277.0: 1.0}</t>
@@ -1909,7 +1909,7 @@
     <t>{404.0: 0.7774172615184942, 907.0: 0.22258273848150556}</t>
   </si>
   <si>
-    <t>{405.0: 0.9975034044484792, 404.0: 0.0024965955515206537}</t>
+    <t>{405.0: 0.9975391498881433, 404.0: 0.0024608501118568234}</t>
   </si>
   <si>
     <t>{404.0: 0.7774172615184942, 907.0: 0.22258273848150553}</t>
@@ -1930,7 +1930,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 0.9998116051243406, 783.0: 0.00018839487565938207}</t>
+    <t>{430.0: 0.9996376811594206, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{432.0: 1.0}</t>
@@ -1951,7 +1951,7 @@
     <t>{489.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.9809994665610905, 97.0: 0.002446549374644078, 696.0: 0.0005017472337709096, 85.0: 0.000527242705573207, 178.0: 0.015524994124921808}</t>
+    <t>{492.0: 0.9809994665610897, 97.0: 0.002446549374644078, 696.0: 0.0005017472337709096, 85.0: 0.000527242705573207, 178.0: 0.015524994124921808}</t>
   </si>
   <si>
     <t>{502.0: 0.9978808570755827, 534.0: 0.0009418412997409934, 695.0: 0.0011773016246762421}</t>
@@ -2083,7 +2083,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.997153492445807, 174.0: 0.0028465075541931244}</t>
+    <t>{687.0: 0.9971296091852506, 174.0: 0.002870390814749393}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972787, 208.0: 0.04251700680272111}</t>
@@ -2101,7 +2101,7 @@
     <t>{695.0: 1.0}</t>
   </si>
   <si>
-    <t>{696.0: 0.9974817134579119, 14.0: 0.0005038629492777964, 492.0: 0.002010310775606779, 97.0: 4.11281720352593e-06}</t>
+    <t>{696.0: 0.9974817134579119, 14.0: 0.0005038629492777964, 492.0: 0.002010310775606778, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2143,7 +2143,7 @@
     <t>{768.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571428, 992.0: 0.019642857142857142}</t>
+    <t>{770.0: 0.9801712483100494, 992.0: 0.01982875168995043}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
@@ -2158,7 +2158,7 @@
     <t>{783.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047503, 889.0: 0.2047145289952496}</t>
+    <t>{785.0: 0.685269395066832, 889.0: 0.31473060493316796}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
@@ -2185,10 +2185,10 @@
     <t>{852.0: 1.0}</t>
   </si>
   <si>
-    <t>{853.0: 0.850417174791577, 202.0: 0.06267530338672693, 477.0: 0.08205885827966762, 307.0: 8.839720974269256e-05, 207.0: 0.004652774125470501, 680.0: 0.00010749220681500595}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9927664599940952, 695.0: 0.007233540005904927}</t>
+    <t>{853.0: 0.8504171747915775, 202.0: 0.06267530338672693, 477.0: 0.08205885827966762, 307.0: 8.839720974269256e-05, 207.0: 0.004652774125470501, 680.0: 0.00010749220681500595}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9926963779997018, 695.0: 0.007303622000298106}</t>
   </si>
   <si>
     <t>{861.0: 1.0}</t>
@@ -2218,7 +2218,7 @@
     <t>{909.0: 1.0}</t>
   </si>
   <si>
-    <t>{911.0: 0.9950083194675541, 687.0: 0.004977471676102198, 174.0: 1.4208856343726078e-05}</t>
+    <t>{911.0: 0.9950083194675541, 687.0: 0.0049773524584954265, 174.0: 1.4328073950496138e-05}</t>
   </si>
   <si>
     <t>{914.0: 0.9042779872152105, 110.0: 0.09572201278478937}</t>
@@ -2254,7 +2254,7 @@
     <t>{940.0: 0.9931610942249239, 785.0: 0.006838905775075989}</t>
   </si>
   <si>
-    <t>{943.0: 0.8000222720249447, 848.0: 0.1613396177119069, 634.0: 0.03863811026314845}</t>
+    <t>{943.0: 0.7700641420657478, 848.0: 0.1855094754451809, 634.0: 0.04442638248907136}</t>
   </si>
   <si>
     <t>{971.0: 0.9989698686582539, 152.0: 0.0010301313417460727}</t>
@@ -4274,7 +4274,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -4296,29 +4296,29 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>593</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>154</v>
+        <v>593</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4329,7 +4329,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4340,7 +4340,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4351,29 +4351,29 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>609</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>609</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4384,29 +4384,29 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>610</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>610</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4450,106 +4450,106 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>611</v>
+        <v>167</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>168</v>
+        <v>611</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>612</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>171</v>
+        <v>613</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>614</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>173</v>
+        <v>614</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>615</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>175</v>
+        <v>615</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4560,7 +4560,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4582,51 +4582,51 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>616</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>180</v>
+        <v>616</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>617</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>182</v>
+        <v>617</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4637,40 +4637,40 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>618</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>619</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4681,40 +4681,40 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>620</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>621</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4725,7 +4725,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4758,7 +4758,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4769,7 +4769,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4780,7 +4780,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4791,84 +4791,84 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>622</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>201</v>
+        <v>624</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>625</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>204</v>
+        <v>626</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4912,7 +4912,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4923,40 +4923,40 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>594</v>
+        <v>210</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>627</v>
+        <v>594</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>212</v>
+        <v>627</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4978,7 +4978,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -5000,7 +5000,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
